--- a/Assets/Other/_房间规则.xlsx
+++ b/Assets/Other/_房间规则.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="回合规则" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>1.可交互卡牌数量</t>
   </si>
@@ -90,6 +90,27 @@
     <t>4.阴阳</t>
   </si>
   <si>
+    <t>5.房间结束之后结算</t>
+  </si>
+  <si>
+    <t>每个房间结束之后，可以进行【搜刮】，【休息】，【总结经验】</t>
+  </si>
+  <si>
+    <t>搜刮可能获得额外的战利品</t>
+  </si>
+  <si>
+    <t>休息可以恢复生命，上限为身体的最大生命值（由肢体耐久决定）</t>
+  </si>
+  <si>
+    <t>总结经验可能可以获得新特质</t>
+  </si>
+  <si>
+    <t>6.房间结束之前结算</t>
+  </si>
+  <si>
+    <t>每个房间开始之前，躯体会腐败，灵魂会消散</t>
+  </si>
+  <si>
     <t>普通房间</t>
   </si>
   <si>
@@ -106,6 +127,18 @@
   </si>
   <si>
     <t>休息</t>
+  </si>
+  <si>
+    <t>尸潮</t>
+  </si>
+  <si>
+    <t>墓地</t>
+  </si>
+  <si>
+    <t>沼泽</t>
+  </si>
+  <si>
+    <t>雾气</t>
   </si>
   <si>
     <t>阴阳</t>
@@ -140,10 +173,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -151,6 +184,105 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -163,44 +295,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -209,7 +303,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,82 +311,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,187 +340,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,7 +538,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,36 +554,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,11 +584,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,10 +639,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -618,133 +651,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1100,10 +1133,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A27"/>
+  <dimension ref="A1:A37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1226,6 +1259,41 @@
     <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1238,40 +1306,60 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1286,7 +1374,7 @@
   <sheetPr/>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1298,43 +1386,43 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Other/_房间规则.xlsx
+++ b/Assets/Other/_房间规则.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="回合规则" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>1.可交互卡牌数量</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>每个房间开始之前，躯体会腐败，灵魂会消散</t>
+  </si>
+  <si>
+    <t>其他想法</t>
+  </si>
+  <si>
+    <t>1.循环 每转一圈，就达成了一个循环，从而达到某些效果</t>
   </si>
   <si>
     <t>普通房间</t>
@@ -173,10 +179,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -203,14 +209,52 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -218,9 +262,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,8 +292,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,7 +302,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,13 +310,12 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -271,54 +323,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,49 +346,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,133 +484,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,9 +542,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,26 +568,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,7 +594,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,130 +660,130 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1133,10 +1139,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A37"/>
+  <dimension ref="A1:A42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1294,6 +1300,16 @@
     <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1308,7 +1324,7 @@
   <sheetPr/>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -1316,50 +1332,50 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1386,43 +1402,43 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
